--- a/Data/nima_gear_catalog.xlsx
+++ b/Data/nima_gear_catalog.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Category</t>
   </si>
@@ -66,8 +69,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://res.cloudinary.com/dwla0o4go/image/upload/v1745419306/mike-montgomery-JNizejfX4B8-unsplash_zwlkvy.jpg</t>
     </r>
@@ -93,8 +98,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://res.cloudinary.com/dwla0o4go/image/upload/v1745419306/mike-montgomery-JNizejfX4B8-unsplash_zwlkvy.jpg</t>
     </r>
@@ -123,8 +130,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://res.cloudinary.com/dwla0o4go/image/upload/v1745419736/pexels-xue-guangjian-815005-1687845_kscib5.jpg</t>
     </r>
@@ -150,8 +159,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://res.cloudinary.com/dwla0o4go/image/upload/v1745419744/pexels-sagui-andrea-200115-618848_uvsj4s.jpg</t>
     </r>
@@ -180,8 +191,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://res.cloudinary.com/dwla0o4go/image/upload/v1745419306/mike-montgomery-JNizejfX4B8-unsplash_zwlkvy.jpg</t>
     </r>
@@ -198,8 +211,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://res.cloudinary.com/dwla0o4go/image/upload/v1745419306/mike-montgomery-JNizejfX4B8-unsplash_zwlkvy.jpg</t>
     </r>
@@ -216,8 +231,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://res.cloudinary.com/dwla0o4go/image/upload/v1745419736/pexels-xue-guangjian-815005-1687845_kscib5.jpg</t>
     </r>
@@ -231,38 +248,67 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://res.cloudinary.com/dwla0o4go/image/upload/v1745419744/pexels-sagui-andrea-200115-618848_uvsj4s.jpg</t>
     </r>
+  </si>
+  <si>
+    <t>warranty</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>2 months</t>
+  </si>
+  <si>
+    <t>1 year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,11 +316,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -288,48 +340,53 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -519,31 +576,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="14.57"/>
-    <col customWidth="1" min="3" max="4" width="11.71"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="22.14"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="10.0"/>
-    <col customWidth="1" min="9" max="9" width="15.14"/>
-    <col customWidth="1" min="10" max="27" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +630,11 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -600,8 +662,11 @@
       <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="J2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -629,8 +694,11 @@
       <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="J3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -658,8 +726,11 @@
       <c r="I4" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -687,8 +758,11 @@
       <c r="I5" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -716,8 +790,11 @@
       <c r="I6" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -745,8 +822,11 @@
       <c r="I7" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -774,8 +854,11 @@
       <c r="I8" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -803,2994 +886,2995 @@
       <c r="I9" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="I10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10">
       <c r="I11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10">
       <c r="I12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10">
       <c r="I13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10">
       <c r="I14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10">
       <c r="I15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10">
       <c r="I16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="9:9">
       <c r="I17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="9:9">
       <c r="I18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="9:9">
       <c r="I19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" spans="9:9">
       <c r="I20" s="7"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="9:9" ht="15.75" customHeight="1">
       <c r="I21" s="7"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="9:9" ht="15.75" customHeight="1">
       <c r="I22" s="7"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="9:9" ht="15.75" customHeight="1">
       <c r="I23" s="7"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="9:9" ht="15.75" customHeight="1">
       <c r="I24" s="7"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="9:9" ht="15.75" customHeight="1">
       <c r="I25" s="7"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="9:9" ht="15.75" customHeight="1">
       <c r="I26" s="7"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="9:9" ht="15.75" customHeight="1">
       <c r="I27" s="7"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="9:9" ht="15.75" customHeight="1">
       <c r="I28" s="7"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="9:9" ht="15.75" customHeight="1">
       <c r="I29" s="7"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="9:9" ht="15.75" customHeight="1">
       <c r="I30" s="7"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="9:9" ht="15.75" customHeight="1">
       <c r="I31" s="7"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="9:9" ht="15.75" customHeight="1">
       <c r="I32" s="7"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="9:9" ht="15.75" customHeight="1">
       <c r="I33" s="7"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="9:9" ht="15.75" customHeight="1">
       <c r="I34" s="7"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="9:9" ht="15.75" customHeight="1">
       <c r="I35" s="7"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="9:9" ht="15.75" customHeight="1">
       <c r="I36" s="7"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="9:9" ht="15.75" customHeight="1">
       <c r="I37" s="7"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="9:9" ht="15.75" customHeight="1">
       <c r="I38" s="7"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="9:9" ht="15.75" customHeight="1">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="9:9" ht="15.75" customHeight="1">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="9:9" ht="15.75" customHeight="1">
       <c r="I41" s="7"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="9:9" ht="15.75" customHeight="1">
       <c r="I42" s="7"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="9:9" ht="15.75" customHeight="1">
       <c r="I43" s="7"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="9:9" ht="15.75" customHeight="1">
       <c r="I44" s="7"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="9:9" ht="15.75" customHeight="1">
       <c r="I45" s="7"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="9:9" ht="15.75" customHeight="1">
       <c r="I46" s="7"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="9:9" ht="15.75" customHeight="1">
       <c r="I47" s="7"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="9:9" ht="15.75" customHeight="1">
       <c r="I48" s="7"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="9:9" ht="15.75" customHeight="1">
       <c r="I49" s="7"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="9:9" ht="15.75" customHeight="1">
       <c r="I50" s="7"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="9:9" ht="15.75" customHeight="1">
       <c r="I51" s="7"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="9:9" ht="15.75" customHeight="1">
       <c r="I52" s="7"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="9:9" ht="15.75" customHeight="1">
       <c r="I53" s="7"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="9:9" ht="15.75" customHeight="1">
       <c r="I54" s="7"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="9:9" ht="15.75" customHeight="1">
       <c r="I55" s="7"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="9:9" ht="15.75" customHeight="1">
       <c r="I56" s="7"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="9:9" ht="15.75" customHeight="1">
       <c r="I57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="9:9" ht="15.75" customHeight="1">
       <c r="I58" s="7"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="9:9" ht="15.75" customHeight="1">
       <c r="I59" s="7"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="9:9" ht="15.75" customHeight="1">
       <c r="I60" s="7"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="9:9" ht="15.75" customHeight="1">
       <c r="I61" s="7"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="9:9" ht="15.75" customHeight="1">
       <c r="I62" s="7"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="9:9" ht="15.75" customHeight="1">
       <c r="I63" s="7"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="9:9" ht="15.75" customHeight="1">
       <c r="I64" s="7"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="9:9" ht="15.75" customHeight="1">
       <c r="I65" s="7"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="9:9" ht="15.75" customHeight="1">
       <c r="I66" s="7"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="9:9" ht="15.75" customHeight="1">
       <c r="I67" s="7"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="9:9" ht="15.75" customHeight="1">
       <c r="I68" s="7"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="9:9" ht="15.75" customHeight="1">
       <c r="I69" s="7"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="9:9" ht="15.75" customHeight="1">
       <c r="I70" s="7"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="9:9" ht="15.75" customHeight="1">
       <c r="I71" s="7"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="9:9" ht="15.75" customHeight="1">
       <c r="I72" s="7"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="9:9" ht="15.75" customHeight="1">
       <c r="I73" s="7"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="9:9" ht="15.75" customHeight="1">
       <c r="I74" s="7"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="9:9" ht="15.75" customHeight="1">
       <c r="I75" s="7"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="9:9" ht="15.75" customHeight="1">
       <c r="I76" s="7"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="9:9" ht="15.75" customHeight="1">
       <c r="I77" s="7"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="9:9" ht="15.75" customHeight="1">
       <c r="I78" s="7"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="9:9" ht="15.75" customHeight="1">
       <c r="I79" s="7"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="9:9" ht="15.75" customHeight="1">
       <c r="I80" s="7"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="9:9" ht="15.75" customHeight="1">
       <c r="I81" s="7"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="9:9" ht="15.75" customHeight="1">
       <c r="I82" s="7"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="9:9" ht="15.75" customHeight="1">
       <c r="I83" s="7"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="9:9" ht="15.75" customHeight="1">
       <c r="I84" s="7"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="9:9" ht="15.75" customHeight="1">
       <c r="I85" s="7"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="9:9" ht="15.75" customHeight="1">
       <c r="I86" s="7"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="9:9" ht="15.75" customHeight="1">
       <c r="I87" s="7"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="9:9" ht="15.75" customHeight="1">
       <c r="I88" s="7"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="9:9" ht="15.75" customHeight="1">
       <c r="I89" s="7"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="9:9" ht="15.75" customHeight="1">
       <c r="I90" s="7"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="9:9" ht="15.75" customHeight="1">
       <c r="I91" s="7"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="9:9" ht="15.75" customHeight="1">
       <c r="I92" s="7"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="9:9" ht="15.75" customHeight="1">
       <c r="I93" s="7"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="9:9" ht="15.75" customHeight="1">
       <c r="I94" s="7"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="9:9" ht="15.75" customHeight="1">
       <c r="I95" s="7"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="9:9" ht="15.75" customHeight="1">
       <c r="I96" s="7"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="9:9" ht="15.75" customHeight="1">
       <c r="I97" s="7"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="9:9" ht="15.75" customHeight="1">
       <c r="I98" s="7"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="9:9" ht="15.75" customHeight="1">
       <c r="I99" s="7"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="9:9" ht="15.75" customHeight="1">
       <c r="I100" s="7"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="9:9" ht="15.75" customHeight="1">
       <c r="I101" s="7"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="9:9" ht="15.75" customHeight="1">
       <c r="I102" s="7"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="9:9" ht="15.75" customHeight="1">
       <c r="I103" s="7"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="9:9" ht="15.75" customHeight="1">
       <c r="I104" s="7"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="9:9" ht="15.75" customHeight="1">
       <c r="I105" s="7"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="9:9" ht="15.75" customHeight="1">
       <c r="I106" s="7"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="9:9" ht="15.75" customHeight="1">
       <c r="I107" s="7"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="9:9" ht="15.75" customHeight="1">
       <c r="I108" s="7"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="9:9" ht="15.75" customHeight="1">
       <c r="I109" s="7"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="9:9" ht="15.75" customHeight="1">
       <c r="I110" s="7"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="9:9" ht="15.75" customHeight="1">
       <c r="I111" s="7"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="9:9" ht="15.75" customHeight="1">
       <c r="I112" s="7"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="9:9" ht="15.75" customHeight="1">
       <c r="I113" s="7"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="9:9" ht="15.75" customHeight="1">
       <c r="I114" s="7"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="9:9" ht="15.75" customHeight="1">
       <c r="I115" s="7"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="9:9" ht="15.75" customHeight="1">
       <c r="I116" s="7"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="9:9" ht="15.75" customHeight="1">
       <c r="I117" s="7"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="9:9" ht="15.75" customHeight="1">
       <c r="I118" s="7"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="9:9" ht="15.75" customHeight="1">
       <c r="I119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="9:9" ht="15.75" customHeight="1">
       <c r="I120" s="7"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="9:9" ht="15.75" customHeight="1">
       <c r="I121" s="7"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="9:9" ht="15.75" customHeight="1">
       <c r="I122" s="7"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="9:9" ht="15.75" customHeight="1">
       <c r="I123" s="7"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="9:9" ht="15.75" customHeight="1">
       <c r="I124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="9:9" ht="15.75" customHeight="1">
       <c r="I125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="9:9" ht="15.75" customHeight="1">
       <c r="I126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="9:9" ht="15.75" customHeight="1">
       <c r="I127" s="7"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="9:9" ht="15.75" customHeight="1">
       <c r="I128" s="7"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="9:9" ht="15.75" customHeight="1">
       <c r="I129" s="7"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="9:9" ht="15.75" customHeight="1">
       <c r="I130" s="7"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="9:9" ht="15.75" customHeight="1">
       <c r="I131" s="7"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="9:9" ht="15.75" customHeight="1">
       <c r="I132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="9:9" ht="15.75" customHeight="1">
       <c r="I133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="9:9" ht="15.75" customHeight="1">
       <c r="I134" s="7"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="9:9" ht="15.75" customHeight="1">
       <c r="I135" s="7"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="9:9" ht="15.75" customHeight="1">
       <c r="I136" s="7"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="9:9" ht="15.75" customHeight="1">
       <c r="I137" s="7"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="9:9" ht="15.75" customHeight="1">
       <c r="I138" s="7"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="9:9" ht="15.75" customHeight="1">
       <c r="I139" s="7"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="9:9" ht="15.75" customHeight="1">
       <c r="I140" s="7"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="9:9" ht="15.75" customHeight="1">
       <c r="I141" s="7"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="9:9" ht="15.75" customHeight="1">
       <c r="I142" s="7"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="9:9" ht="15.75" customHeight="1">
       <c r="I143" s="7"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="9:9" ht="15.75" customHeight="1">
       <c r="I144" s="7"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="9:9" ht="15.75" customHeight="1">
       <c r="I145" s="7"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="9:9" ht="15.75" customHeight="1">
       <c r="I146" s="7"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="9:9" ht="15.75" customHeight="1">
       <c r="I147" s="7"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="9:9" ht="15.75" customHeight="1">
       <c r="I148" s="7"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="9:9" ht="15.75" customHeight="1">
       <c r="I149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="9:9" ht="15.75" customHeight="1">
       <c r="I150" s="7"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="9:9" ht="15.75" customHeight="1">
       <c r="I151" s="7"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="9:9" ht="15.75" customHeight="1">
       <c r="I152" s="7"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="9:9" ht="15.75" customHeight="1">
       <c r="I153" s="7"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="9:9" ht="15.75" customHeight="1">
       <c r="I154" s="7"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="9:9" ht="15.75" customHeight="1">
       <c r="I155" s="7"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="9:9" ht="15.75" customHeight="1">
       <c r="I156" s="7"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="9:9" ht="15.75" customHeight="1">
       <c r="I157" s="7"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="9:9" ht="15.75" customHeight="1">
       <c r="I158" s="7"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="9:9" ht="15.75" customHeight="1">
       <c r="I159" s="7"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="9:9" ht="15.75" customHeight="1">
       <c r="I160" s="7"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="9:9" ht="15.75" customHeight="1">
       <c r="I161" s="7"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="9:9" ht="15.75" customHeight="1">
       <c r="I162" s="7"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="9:9" ht="15.75" customHeight="1">
       <c r="I163" s="7"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="9:9" ht="15.75" customHeight="1">
       <c r="I164" s="7"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="9:9" ht="15.75" customHeight="1">
       <c r="I165" s="7"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="9:9" ht="15.75" customHeight="1">
       <c r="I166" s="7"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="9:9" ht="15.75" customHeight="1">
       <c r="I167" s="7"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="9:9" ht="15.75" customHeight="1">
       <c r="I168" s="7"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="9:9" ht="15.75" customHeight="1">
       <c r="I169" s="7"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="9:9" ht="15.75" customHeight="1">
       <c r="I170" s="7"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="9:9" ht="15.75" customHeight="1">
       <c r="I171" s="7"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="9:9" ht="15.75" customHeight="1">
       <c r="I172" s="7"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="9:9" ht="15.75" customHeight="1">
       <c r="I173" s="7"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="9:9" ht="15.75" customHeight="1">
       <c r="I174" s="7"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="9:9" ht="15.75" customHeight="1">
       <c r="I175" s="7"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="9:9" ht="15.75" customHeight="1">
       <c r="I176" s="7"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="9:9" ht="15.75" customHeight="1">
       <c r="I177" s="7"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="9:9" ht="15.75" customHeight="1">
       <c r="I178" s="7"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="9:9" ht="15.75" customHeight="1">
       <c r="I179" s="7"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="9:9" ht="15.75" customHeight="1">
       <c r="I180" s="7"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="9:9" ht="15.75" customHeight="1">
       <c r="I181" s="7"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="9:9" ht="15.75" customHeight="1">
       <c r="I182" s="7"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="9:9" ht="15.75" customHeight="1">
       <c r="I183" s="7"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="9:9" ht="15.75" customHeight="1">
       <c r="I184" s="7"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="9:9" ht="15.75" customHeight="1">
       <c r="I185" s="7"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="9:9" ht="15.75" customHeight="1">
       <c r="I186" s="7"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="9:9" ht="15.75" customHeight="1">
       <c r="I187" s="7"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="9:9" ht="15.75" customHeight="1">
       <c r="I188" s="7"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="9:9" ht="15.75" customHeight="1">
       <c r="I189" s="7"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="9:9" ht="15.75" customHeight="1">
       <c r="I190" s="7"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="9:9" ht="15.75" customHeight="1">
       <c r="I191" s="7"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="9:9" ht="15.75" customHeight="1">
       <c r="I192" s="7"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="9:9" ht="15.75" customHeight="1">
       <c r="I193" s="7"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="9:9" ht="15.75" customHeight="1">
       <c r="I194" s="7"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="9:9" ht="15.75" customHeight="1">
       <c r="I195" s="7"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="9:9" ht="15.75" customHeight="1">
       <c r="I196" s="7"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="9:9" ht="15.75" customHeight="1">
       <c r="I197" s="7"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="9:9" ht="15.75" customHeight="1">
       <c r="I198" s="7"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="9:9" ht="15.75" customHeight="1">
       <c r="I199" s="7"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="9:9" ht="15.75" customHeight="1">
       <c r="I200" s="7"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="9:9" ht="15.75" customHeight="1">
       <c r="I201" s="7"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="9:9" ht="15.75" customHeight="1">
       <c r="I202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="9:9" ht="15.75" customHeight="1">
       <c r="I203" s="7"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="9:9" ht="15.75" customHeight="1">
       <c r="I204" s="7"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="9:9" ht="15.75" customHeight="1">
       <c r="I205" s="7"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="9:9" ht="15.75" customHeight="1">
       <c r="I206" s="7"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="9:9" ht="15.75" customHeight="1">
       <c r="I207" s="7"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="9:9" ht="15.75" customHeight="1">
       <c r="I208" s="7"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="9:9" ht="15.75" customHeight="1">
       <c r="I209" s="7"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="9:9" ht="15.75" customHeight="1">
       <c r="I210" s="7"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="9:9" ht="15.75" customHeight="1">
       <c r="I211" s="7"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="9:9" ht="15.75" customHeight="1">
       <c r="I212" s="7"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="9:9" ht="15.75" customHeight="1">
       <c r="I213" s="7"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="9:9" ht="15.75" customHeight="1">
       <c r="I214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="9:9" ht="15.75" customHeight="1">
       <c r="I215" s="7"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="9:9" ht="15.75" customHeight="1">
       <c r="I216" s="7"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="9:9" ht="15.75" customHeight="1">
       <c r="I217" s="7"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="9:9" ht="15.75" customHeight="1">
       <c r="I218" s="7"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="9:9" ht="15.75" customHeight="1">
       <c r="I219" s="7"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="9:9" ht="15.75" customHeight="1">
       <c r="I220" s="7"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="9:9" ht="15.75" customHeight="1">
       <c r="I221" s="7"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="9:9" ht="15.75" customHeight="1">
       <c r="I222" s="7"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="9:9" ht="15.75" customHeight="1">
       <c r="I223" s="7"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="9:9" ht="15.75" customHeight="1">
       <c r="I224" s="7"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="9:9" ht="15.75" customHeight="1">
       <c r="I225" s="7"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="9:9" ht="15.75" customHeight="1">
       <c r="I226" s="7"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="9:9" ht="15.75" customHeight="1">
       <c r="I227" s="7"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="9:9" ht="15.75" customHeight="1">
       <c r="I228" s="7"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="9:9" ht="15.75" customHeight="1">
       <c r="I229" s="7"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="9:9" ht="15.75" customHeight="1">
       <c r="I230" s="7"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="9:9" ht="15.75" customHeight="1">
       <c r="I231" s="7"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="9:9" ht="15.75" customHeight="1">
       <c r="I232" s="7"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="9:9" ht="15.75" customHeight="1">
       <c r="I233" s="7"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="9:9" ht="15.75" customHeight="1">
       <c r="I234" s="7"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="9:9" ht="15.75" customHeight="1">
       <c r="I235" s="7"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="9:9" ht="15.75" customHeight="1">
       <c r="I236" s="7"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="9:9" ht="15.75" customHeight="1">
       <c r="I237" s="7"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="9:9" ht="15.75" customHeight="1">
       <c r="I238" s="7"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="9:9" ht="15.75" customHeight="1">
       <c r="I239" s="7"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="9:9" ht="15.75" customHeight="1">
       <c r="I240" s="7"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="9:9" ht="15.75" customHeight="1">
       <c r="I241" s="7"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="9:9" ht="15.75" customHeight="1">
       <c r="I242" s="7"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="9:9" ht="15.75" customHeight="1">
       <c r="I243" s="7"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="9:9" ht="15.75" customHeight="1">
       <c r="I244" s="7"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="9:9" ht="15.75" customHeight="1">
       <c r="I245" s="7"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="9:9" ht="15.75" customHeight="1">
       <c r="I246" s="7"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="9:9" ht="15.75" customHeight="1">
       <c r="I247" s="7"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="9:9" ht="15.75" customHeight="1">
       <c r="I248" s="7"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="9:9" ht="15.75" customHeight="1">
       <c r="I249" s="7"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="9:9" ht="15.75" customHeight="1">
       <c r="I250" s="7"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="9:9" ht="15.75" customHeight="1">
       <c r="I251" s="7"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="9:9" ht="15.75" customHeight="1">
       <c r="I252" s="7"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="9:9" ht="15.75" customHeight="1">
       <c r="I253" s="7"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="9:9" ht="15.75" customHeight="1">
       <c r="I254" s="7"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="9:9" ht="15.75" customHeight="1">
       <c r="I255" s="7"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="9:9" ht="15.75" customHeight="1">
       <c r="I256" s="7"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="9:9" ht="15.75" customHeight="1">
       <c r="I257" s="7"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="9:9" ht="15.75" customHeight="1">
       <c r="I258" s="7"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="9:9" ht="15.75" customHeight="1">
       <c r="I259" s="7"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="9:9" ht="15.75" customHeight="1">
       <c r="I260" s="7"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="9:9" ht="15.75" customHeight="1">
       <c r="I261" s="7"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="9:9" ht="15.75" customHeight="1">
       <c r="I262" s="7"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="9:9" ht="15.75" customHeight="1">
       <c r="I263" s="7"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="9:9" ht="15.75" customHeight="1">
       <c r="I264" s="7"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="9:9" ht="15.75" customHeight="1">
       <c r="I265" s="7"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="9:9" ht="15.75" customHeight="1">
       <c r="I266" s="7"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="9:9" ht="15.75" customHeight="1">
       <c r="I267" s="7"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="9:9" ht="15.75" customHeight="1">
       <c r="I268" s="7"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="9:9" ht="15.75" customHeight="1">
       <c r="I269" s="7"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="9:9" ht="15.75" customHeight="1">
       <c r="I270" s="7"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="9:9" ht="15.75" customHeight="1">
       <c r="I271" s="7"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="9:9" ht="15.75" customHeight="1">
       <c r="I272" s="7"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="9:9" ht="15.75" customHeight="1">
       <c r="I273" s="7"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="9:9" ht="15.75" customHeight="1">
       <c r="I274" s="7"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="9:9" ht="15.75" customHeight="1">
       <c r="I275" s="7"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="9:9" ht="15.75" customHeight="1">
       <c r="I276" s="7"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="9:9" ht="15.75" customHeight="1">
       <c r="I277" s="7"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="9:9" ht="15.75" customHeight="1">
       <c r="I278" s="7"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="9:9" ht="15.75" customHeight="1">
       <c r="I279" s="7"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="9:9" ht="15.75" customHeight="1">
       <c r="I280" s="7"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="9:9" ht="15.75" customHeight="1">
       <c r="I281" s="7"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="9:9" ht="15.75" customHeight="1">
       <c r="I282" s="7"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="9:9" ht="15.75" customHeight="1">
       <c r="I283" s="7"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="9:9" ht="15.75" customHeight="1">
       <c r="I284" s="7"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="9:9" ht="15.75" customHeight="1">
       <c r="I285" s="7"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="9:9" ht="15.75" customHeight="1">
       <c r="I286" s="7"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="9:9" ht="15.75" customHeight="1">
       <c r="I287" s="7"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="9:9" ht="15.75" customHeight="1">
       <c r="I288" s="7"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="9:9" ht="15.75" customHeight="1">
       <c r="I289" s="7"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="9:9" ht="15.75" customHeight="1">
       <c r="I290" s="7"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="9:9" ht="15.75" customHeight="1">
       <c r="I291" s="7"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="9:9" ht="15.75" customHeight="1">
       <c r="I292" s="7"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="9:9" ht="15.75" customHeight="1">
       <c r="I293" s="7"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="9:9" ht="15.75" customHeight="1">
       <c r="I294" s="7"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="9:9" ht="15.75" customHeight="1">
       <c r="I295" s="7"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="9:9" ht="15.75" customHeight="1">
       <c r="I296" s="7"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="9:9" ht="15.75" customHeight="1">
       <c r="I297" s="7"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="9:9" ht="15.75" customHeight="1">
       <c r="I298" s="7"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="9:9" ht="15.75" customHeight="1">
       <c r="I299" s="7"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="9:9" ht="15.75" customHeight="1">
       <c r="I300" s="7"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="9:9" ht="15.75" customHeight="1">
       <c r="I301" s="7"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="9:9" ht="15.75" customHeight="1">
       <c r="I302" s="7"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="9:9" ht="15.75" customHeight="1">
       <c r="I303" s="7"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="9:9" ht="15.75" customHeight="1">
       <c r="I304" s="7"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="9:9" ht="15.75" customHeight="1">
       <c r="I305" s="7"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="9:9" ht="15.75" customHeight="1">
       <c r="I306" s="7"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="9:9" ht="15.75" customHeight="1">
       <c r="I307" s="7"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="9:9" ht="15.75" customHeight="1">
       <c r="I308" s="7"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="9:9" ht="15.75" customHeight="1">
       <c r="I309" s="7"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="9:9" ht="15.75" customHeight="1">
       <c r="I310" s="7"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="9:9" ht="15.75" customHeight="1">
       <c r="I311" s="7"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="9:9" ht="15.75" customHeight="1">
       <c r="I312" s="7"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="9:9" ht="15.75" customHeight="1">
       <c r="I313" s="7"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="9:9" ht="15.75" customHeight="1">
       <c r="I314" s="7"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="9:9" ht="15.75" customHeight="1">
       <c r="I315" s="7"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="9:9" ht="15.75" customHeight="1">
       <c r="I316" s="7"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="9:9" ht="15.75" customHeight="1">
       <c r="I317" s="7"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="9:9" ht="15.75" customHeight="1">
       <c r="I318" s="7"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="9:9" ht="15.75" customHeight="1">
       <c r="I319" s="7"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="9:9" ht="15.75" customHeight="1">
       <c r="I320" s="7"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="9:9" ht="15.75" customHeight="1">
       <c r="I321" s="7"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="9:9" ht="15.75" customHeight="1">
       <c r="I322" s="7"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="9:9" ht="15.75" customHeight="1">
       <c r="I323" s="7"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="9:9" ht="15.75" customHeight="1">
       <c r="I324" s="7"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="9:9" ht="15.75" customHeight="1">
       <c r="I325" s="7"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="9:9" ht="15.75" customHeight="1">
       <c r="I326" s="7"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="9:9" ht="15.75" customHeight="1">
       <c r="I327" s="7"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="9:9" ht="15.75" customHeight="1">
       <c r="I328" s="7"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="9:9" ht="15.75" customHeight="1">
       <c r="I329" s="7"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="9:9" ht="15.75" customHeight="1">
       <c r="I330" s="7"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="9:9" ht="15.75" customHeight="1">
       <c r="I331" s="7"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="9:9" ht="15.75" customHeight="1">
       <c r="I332" s="7"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="9:9" ht="15.75" customHeight="1">
       <c r="I333" s="7"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="9:9" ht="15.75" customHeight="1">
       <c r="I334" s="7"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="9:9" ht="15.75" customHeight="1">
       <c r="I335" s="7"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="9:9" ht="15.75" customHeight="1">
       <c r="I336" s="7"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="9:9" ht="15.75" customHeight="1">
       <c r="I337" s="7"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="9:9" ht="15.75" customHeight="1">
       <c r="I338" s="7"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="9:9" ht="15.75" customHeight="1">
       <c r="I339" s="7"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="9:9" ht="15.75" customHeight="1">
       <c r="I340" s="7"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="9:9" ht="15.75" customHeight="1">
       <c r="I341" s="7"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="9:9" ht="15.75" customHeight="1">
       <c r="I342" s="7"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="9:9" ht="15.75" customHeight="1">
       <c r="I343" s="7"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="9:9" ht="15.75" customHeight="1">
       <c r="I344" s="7"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="9:9" ht="15.75" customHeight="1">
       <c r="I345" s="7"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="9:9" ht="15.75" customHeight="1">
       <c r="I346" s="7"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="9:9" ht="15.75" customHeight="1">
       <c r="I347" s="7"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="9:9" ht="15.75" customHeight="1">
       <c r="I348" s="7"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="9:9" ht="15.75" customHeight="1">
       <c r="I349" s="7"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="9:9" ht="15.75" customHeight="1">
       <c r="I350" s="7"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="9:9" ht="15.75" customHeight="1">
       <c r="I351" s="7"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="9:9" ht="15.75" customHeight="1">
       <c r="I352" s="7"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="9:9" ht="15.75" customHeight="1">
       <c r="I353" s="7"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="9:9" ht="15.75" customHeight="1">
       <c r="I354" s="7"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="9:9" ht="15.75" customHeight="1">
       <c r="I355" s="7"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="9:9" ht="15.75" customHeight="1">
       <c r="I356" s="7"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="9:9" ht="15.75" customHeight="1">
       <c r="I357" s="7"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="9:9" ht="15.75" customHeight="1">
       <c r="I358" s="7"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="9:9" ht="15.75" customHeight="1">
       <c r="I359" s="7"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="9:9" ht="15.75" customHeight="1">
       <c r="I360" s="7"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="9:9" ht="15.75" customHeight="1">
       <c r="I361" s="7"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="9:9" ht="15.75" customHeight="1">
       <c r="I362" s="7"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="9:9" ht="15.75" customHeight="1">
       <c r="I363" s="7"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="9:9" ht="15.75" customHeight="1">
       <c r="I364" s="7"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="9:9" ht="15.75" customHeight="1">
       <c r="I365" s="7"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="9:9" ht="15.75" customHeight="1">
       <c r="I366" s="7"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="9:9" ht="15.75" customHeight="1">
       <c r="I367" s="7"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="9:9" ht="15.75" customHeight="1">
       <c r="I368" s="7"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="9:9" ht="15.75" customHeight="1">
       <c r="I369" s="7"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="9:9" ht="15.75" customHeight="1">
       <c r="I370" s="7"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="9:9" ht="15.75" customHeight="1">
       <c r="I371" s="7"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="9:9" ht="15.75" customHeight="1">
       <c r="I372" s="7"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="9:9" ht="15.75" customHeight="1">
       <c r="I373" s="7"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="9:9" ht="15.75" customHeight="1">
       <c r="I374" s="7"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="9:9" ht="15.75" customHeight="1">
       <c r="I375" s="7"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="9:9" ht="15.75" customHeight="1">
       <c r="I376" s="7"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="9:9" ht="15.75" customHeight="1">
       <c r="I377" s="7"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="9:9" ht="15.75" customHeight="1">
       <c r="I378" s="7"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="9:9" ht="15.75" customHeight="1">
       <c r="I379" s="7"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="9:9" ht="15.75" customHeight="1">
       <c r="I380" s="7"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="9:9" ht="15.75" customHeight="1">
       <c r="I381" s="7"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="9:9" ht="15.75" customHeight="1">
       <c r="I382" s="7"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="9:9" ht="15.75" customHeight="1">
       <c r="I383" s="7"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="9:9" ht="15.75" customHeight="1">
       <c r="I384" s="7"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="9:9" ht="15.75" customHeight="1">
       <c r="I385" s="7"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="9:9" ht="15.75" customHeight="1">
       <c r="I386" s="7"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="9:9" ht="15.75" customHeight="1">
       <c r="I387" s="7"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="9:9" ht="15.75" customHeight="1">
       <c r="I388" s="7"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="9:9" ht="15.75" customHeight="1">
       <c r="I389" s="7"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="9:9" ht="15.75" customHeight="1">
       <c r="I390" s="7"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="9:9" ht="15.75" customHeight="1">
       <c r="I391" s="7"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="9:9" ht="15.75" customHeight="1">
       <c r="I392" s="7"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="9:9" ht="15.75" customHeight="1">
       <c r="I393" s="7"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="9:9" ht="15.75" customHeight="1">
       <c r="I394" s="7"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="9:9" ht="15.75" customHeight="1">
       <c r="I395" s="7"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="9:9" ht="15.75" customHeight="1">
       <c r="I396" s="7"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="9:9" ht="15.75" customHeight="1">
       <c r="I397" s="7"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="9:9" ht="15.75" customHeight="1">
       <c r="I398" s="7"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="9:9" ht="15.75" customHeight="1">
       <c r="I399" s="7"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="9:9" ht="15.75" customHeight="1">
       <c r="I400" s="7"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="9:9" ht="15.75" customHeight="1">
       <c r="I401" s="7"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="9:9" ht="15.75" customHeight="1">
       <c r="I402" s="7"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="9:9" ht="15.75" customHeight="1">
       <c r="I403" s="7"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="9:9" ht="15.75" customHeight="1">
       <c r="I404" s="7"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="9:9" ht="15.75" customHeight="1">
       <c r="I405" s="7"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="9:9" ht="15.75" customHeight="1">
       <c r="I406" s="7"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="9:9" ht="15.75" customHeight="1">
       <c r="I407" s="7"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="9:9" ht="15.75" customHeight="1">
       <c r="I408" s="7"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="9:9" ht="15.75" customHeight="1">
       <c r="I409" s="7"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="9:9" ht="15.75" customHeight="1">
       <c r="I410" s="7"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="9:9" ht="15.75" customHeight="1">
       <c r="I411" s="7"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="9:9" ht="15.75" customHeight="1">
       <c r="I412" s="7"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="9:9" ht="15.75" customHeight="1">
       <c r="I413" s="7"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="9:9" ht="15.75" customHeight="1">
       <c r="I414" s="7"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="9:9" ht="15.75" customHeight="1">
       <c r="I415" s="7"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="9:9" ht="15.75" customHeight="1">
       <c r="I416" s="7"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="9:9" ht="15.75" customHeight="1">
       <c r="I417" s="7"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="9:9" ht="15.75" customHeight="1">
       <c r="I418" s="7"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="9:9" ht="15.75" customHeight="1">
       <c r="I419" s="7"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="9:9" ht="15.75" customHeight="1">
       <c r="I420" s="7"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="9:9" ht="15.75" customHeight="1">
       <c r="I421" s="7"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="9:9" ht="15.75" customHeight="1">
       <c r="I422" s="7"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="9:9" ht="15.75" customHeight="1">
       <c r="I423" s="7"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="9:9" ht="15.75" customHeight="1">
       <c r="I424" s="7"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="9:9" ht="15.75" customHeight="1">
       <c r="I425" s="7"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="9:9" ht="15.75" customHeight="1">
       <c r="I426" s="7"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="9:9" ht="15.75" customHeight="1">
       <c r="I427" s="7"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="9:9" ht="15.75" customHeight="1">
       <c r="I428" s="7"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="9:9" ht="15.75" customHeight="1">
       <c r="I429" s="7"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="9:9" ht="15.75" customHeight="1">
       <c r="I430" s="7"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="9:9" ht="15.75" customHeight="1">
       <c r="I431" s="7"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="9:9" ht="15.75" customHeight="1">
       <c r="I432" s="7"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="9:9" ht="15.75" customHeight="1">
       <c r="I433" s="7"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="9:9" ht="15.75" customHeight="1">
       <c r="I434" s="7"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="9:9" ht="15.75" customHeight="1">
       <c r="I435" s="7"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="9:9" ht="15.75" customHeight="1">
       <c r="I436" s="7"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="9:9" ht="15.75" customHeight="1">
       <c r="I437" s="7"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="9:9" ht="15.75" customHeight="1">
       <c r="I438" s="7"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="9:9" ht="15.75" customHeight="1">
       <c r="I439" s="7"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="9:9" ht="15.75" customHeight="1">
       <c r="I440" s="7"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="9:9" ht="15.75" customHeight="1">
       <c r="I441" s="7"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="9:9" ht="15.75" customHeight="1">
       <c r="I442" s="7"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="9:9" ht="15.75" customHeight="1">
       <c r="I443" s="7"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="9:9" ht="15.75" customHeight="1">
       <c r="I444" s="7"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="9:9" ht="15.75" customHeight="1">
       <c r="I445" s="7"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="9:9" ht="15.75" customHeight="1">
       <c r="I446" s="7"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="9:9" ht="15.75" customHeight="1">
       <c r="I447" s="7"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="9:9" ht="15.75" customHeight="1">
       <c r="I448" s="7"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="9:9" ht="15.75" customHeight="1">
       <c r="I449" s="7"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="9:9" ht="15.75" customHeight="1">
       <c r="I450" s="7"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="9:9" ht="15.75" customHeight="1">
       <c r="I451" s="7"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="9:9" ht="15.75" customHeight="1">
       <c r="I452" s="7"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="9:9" ht="15.75" customHeight="1">
       <c r="I453" s="7"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="9:9" ht="15.75" customHeight="1">
       <c r="I454" s="7"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="9:9" ht="15.75" customHeight="1">
       <c r="I455" s="7"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="9:9" ht="15.75" customHeight="1">
       <c r="I456" s="7"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="9:9" ht="15.75" customHeight="1">
       <c r="I457" s="7"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="9:9" ht="15.75" customHeight="1">
       <c r="I458" s="7"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="9:9" ht="15.75" customHeight="1">
       <c r="I459" s="7"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="9:9" ht="15.75" customHeight="1">
       <c r="I460" s="7"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="9:9" ht="15.75" customHeight="1">
       <c r="I461" s="7"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="9:9" ht="15.75" customHeight="1">
       <c r="I462" s="7"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="9:9" ht="15.75" customHeight="1">
       <c r="I463" s="7"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="9:9" ht="15.75" customHeight="1">
       <c r="I464" s="7"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="9:9" ht="15.75" customHeight="1">
       <c r="I465" s="7"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="9:9" ht="15.75" customHeight="1">
       <c r="I466" s="7"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="9:9" ht="15.75" customHeight="1">
       <c r="I467" s="7"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="9:9" ht="15.75" customHeight="1">
       <c r="I468" s="7"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="9:9" ht="15.75" customHeight="1">
       <c r="I469" s="7"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="9:9" ht="15.75" customHeight="1">
       <c r="I470" s="7"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="9:9" ht="15.75" customHeight="1">
       <c r="I471" s="7"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="9:9" ht="15.75" customHeight="1">
       <c r="I472" s="7"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="9:9" ht="15.75" customHeight="1">
       <c r="I473" s="7"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="9:9" ht="15.75" customHeight="1">
       <c r="I474" s="7"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="9:9" ht="15.75" customHeight="1">
       <c r="I475" s="7"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="9:9" ht="15.75" customHeight="1">
       <c r="I476" s="7"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="9:9" ht="15.75" customHeight="1">
       <c r="I477" s="7"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="9:9" ht="15.75" customHeight="1">
       <c r="I478" s="7"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="9:9" ht="15.75" customHeight="1">
       <c r="I479" s="7"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="9:9" ht="15.75" customHeight="1">
       <c r="I480" s="7"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="9:9" ht="15.75" customHeight="1">
       <c r="I481" s="7"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="9:9" ht="15.75" customHeight="1">
       <c r="I482" s="7"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="9:9" ht="15.75" customHeight="1">
       <c r="I483" s="7"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="9:9" ht="15.75" customHeight="1">
       <c r="I484" s="7"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="9:9" ht="15.75" customHeight="1">
       <c r="I485" s="7"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="9:9" ht="15.75" customHeight="1">
       <c r="I486" s="7"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="9:9" ht="15.75" customHeight="1">
       <c r="I487" s="7"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="9:9" ht="15.75" customHeight="1">
       <c r="I488" s="7"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="9:9" ht="15.75" customHeight="1">
       <c r="I489" s="7"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="9:9" ht="15.75" customHeight="1">
       <c r="I490" s="7"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="9:9" ht="15.75" customHeight="1">
       <c r="I491" s="7"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="9:9" ht="15.75" customHeight="1">
       <c r="I492" s="7"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="9:9" ht="15.75" customHeight="1">
       <c r="I493" s="7"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="9:9" ht="15.75" customHeight="1">
       <c r="I494" s="7"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="9:9" ht="15.75" customHeight="1">
       <c r="I495" s="7"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="9:9" ht="15.75" customHeight="1">
       <c r="I496" s="7"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="9:9" ht="15.75" customHeight="1">
       <c r="I497" s="7"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="9:9" ht="15.75" customHeight="1">
       <c r="I498" s="7"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="9:9" ht="15.75" customHeight="1">
       <c r="I499" s="7"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="9:9" ht="15.75" customHeight="1">
       <c r="I500" s="7"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="9:9" ht="15.75" customHeight="1">
       <c r="I501" s="7"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="9:9" ht="15.75" customHeight="1">
       <c r="I502" s="7"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="9:9" ht="15.75" customHeight="1">
       <c r="I503" s="7"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="9:9" ht="15.75" customHeight="1">
       <c r="I504" s="7"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="9:9" ht="15.75" customHeight="1">
       <c r="I505" s="7"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="9:9" ht="15.75" customHeight="1">
       <c r="I506" s="7"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="9:9" ht="15.75" customHeight="1">
       <c r="I507" s="7"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="9:9" ht="15.75" customHeight="1">
       <c r="I508" s="7"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="9:9" ht="15.75" customHeight="1">
       <c r="I509" s="7"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="9:9" ht="15.75" customHeight="1">
       <c r="I510" s="7"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="9:9" ht="15.75" customHeight="1">
       <c r="I511" s="7"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="9:9" ht="15.75" customHeight="1">
       <c r="I512" s="7"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="9:9" ht="15.75" customHeight="1">
       <c r="I513" s="7"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="9:9" ht="15.75" customHeight="1">
       <c r="I514" s="7"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="9:9" ht="15.75" customHeight="1">
       <c r="I515" s="7"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="9:9" ht="15.75" customHeight="1">
       <c r="I516" s="7"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="9:9" ht="15.75" customHeight="1">
       <c r="I517" s="7"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="9:9" ht="15.75" customHeight="1">
       <c r="I518" s="7"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="9:9" ht="15.75" customHeight="1">
       <c r="I519" s="7"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="9:9" ht="15.75" customHeight="1">
       <c r="I520" s="7"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="9:9" ht="15.75" customHeight="1">
       <c r="I521" s="7"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="9:9" ht="15.75" customHeight="1">
       <c r="I522" s="7"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="9:9" ht="15.75" customHeight="1">
       <c r="I523" s="7"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="9:9" ht="15.75" customHeight="1">
       <c r="I524" s="7"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="9:9" ht="15.75" customHeight="1">
       <c r="I525" s="7"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="9:9" ht="15.75" customHeight="1">
       <c r="I526" s="7"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="9:9" ht="15.75" customHeight="1">
       <c r="I527" s="7"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="9:9" ht="15.75" customHeight="1">
       <c r="I528" s="7"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="9:9" ht="15.75" customHeight="1">
       <c r="I529" s="7"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="9:9" ht="15.75" customHeight="1">
       <c r="I530" s="7"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="9:9" ht="15.75" customHeight="1">
       <c r="I531" s="7"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="9:9" ht="15.75" customHeight="1">
       <c r="I532" s="7"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="9:9" ht="15.75" customHeight="1">
       <c r="I533" s="7"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="9:9" ht="15.75" customHeight="1">
       <c r="I534" s="7"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="9:9" ht="15.75" customHeight="1">
       <c r="I535" s="7"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="9:9" ht="15.75" customHeight="1">
       <c r="I536" s="7"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="9:9" ht="15.75" customHeight="1">
       <c r="I537" s="7"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="9:9" ht="15.75" customHeight="1">
       <c r="I538" s="7"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="9:9" ht="15.75" customHeight="1">
       <c r="I539" s="7"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="9:9" ht="15.75" customHeight="1">
       <c r="I540" s="7"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="9:9" ht="15.75" customHeight="1">
       <c r="I541" s="7"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="9:9" ht="15.75" customHeight="1">
       <c r="I542" s="7"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="9:9" ht="15.75" customHeight="1">
       <c r="I543" s="7"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="9:9" ht="15.75" customHeight="1">
       <c r="I544" s="7"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="9:9" ht="15.75" customHeight="1">
       <c r="I545" s="7"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="9:9" ht="15.75" customHeight="1">
       <c r="I546" s="7"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="9:9" ht="15.75" customHeight="1">
       <c r="I547" s="7"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="9:9" ht="15.75" customHeight="1">
       <c r="I548" s="7"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="9:9" ht="15.75" customHeight="1">
       <c r="I549" s="7"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="9:9" ht="15.75" customHeight="1">
       <c r="I550" s="7"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="9:9" ht="15.75" customHeight="1">
       <c r="I551" s="7"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="9:9" ht="15.75" customHeight="1">
       <c r="I552" s="7"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="9:9" ht="15.75" customHeight="1">
       <c r="I553" s="7"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="9:9" ht="15.75" customHeight="1">
       <c r="I554" s="7"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="9:9" ht="15.75" customHeight="1">
       <c r="I555" s="7"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="9:9" ht="15.75" customHeight="1">
       <c r="I556" s="7"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="9:9" ht="15.75" customHeight="1">
       <c r="I557" s="7"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="9:9" ht="15.75" customHeight="1">
       <c r="I558" s="7"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="9:9" ht="15.75" customHeight="1">
       <c r="I559" s="7"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="9:9" ht="15.75" customHeight="1">
       <c r="I560" s="7"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="9:9" ht="15.75" customHeight="1">
       <c r="I561" s="7"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="9:9" ht="15.75" customHeight="1">
       <c r="I562" s="7"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="9:9" ht="15.75" customHeight="1">
       <c r="I563" s="7"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="9:9" ht="15.75" customHeight="1">
       <c r="I564" s="7"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="9:9" ht="15.75" customHeight="1">
       <c r="I565" s="7"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="9:9" ht="15.75" customHeight="1">
       <c r="I566" s="7"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="9:9" ht="15.75" customHeight="1">
       <c r="I567" s="7"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="9:9" ht="15.75" customHeight="1">
       <c r="I568" s="7"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="9:9" ht="15.75" customHeight="1">
       <c r="I569" s="7"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="9:9" ht="15.75" customHeight="1">
       <c r="I570" s="7"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="9:9" ht="15.75" customHeight="1">
       <c r="I571" s="7"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="9:9" ht="15.75" customHeight="1">
       <c r="I572" s="7"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="9:9" ht="15.75" customHeight="1">
       <c r="I573" s="7"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="9:9" ht="15.75" customHeight="1">
       <c r="I574" s="7"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="9:9" ht="15.75" customHeight="1">
       <c r="I575" s="7"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="9:9" ht="15.75" customHeight="1">
       <c r="I576" s="7"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="9:9" ht="15.75" customHeight="1">
       <c r="I577" s="7"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="9:9" ht="15.75" customHeight="1">
       <c r="I578" s="7"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="9:9" ht="15.75" customHeight="1">
       <c r="I579" s="7"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="9:9" ht="15.75" customHeight="1">
       <c r="I580" s="7"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="9:9" ht="15.75" customHeight="1">
       <c r="I581" s="7"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="9:9" ht="15.75" customHeight="1">
       <c r="I582" s="7"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="9:9" ht="15.75" customHeight="1">
       <c r="I583" s="7"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="9:9" ht="15.75" customHeight="1">
       <c r="I584" s="7"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="9:9" ht="15.75" customHeight="1">
       <c r="I585" s="7"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="9:9" ht="15.75" customHeight="1">
       <c r="I586" s="7"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="9:9" ht="15.75" customHeight="1">
       <c r="I587" s="7"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="9:9" ht="15.75" customHeight="1">
       <c r="I588" s="7"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="9:9" ht="15.75" customHeight="1">
       <c r="I589" s="7"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="9:9" ht="15.75" customHeight="1">
       <c r="I590" s="7"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="9:9" ht="15.75" customHeight="1">
       <c r="I591" s="7"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="9:9" ht="15.75" customHeight="1">
       <c r="I592" s="7"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="9:9" ht="15.75" customHeight="1">
       <c r="I593" s="7"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="9:9" ht="15.75" customHeight="1">
       <c r="I594" s="7"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="9:9" ht="15.75" customHeight="1">
       <c r="I595" s="7"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="9:9" ht="15.75" customHeight="1">
       <c r="I596" s="7"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="9:9" ht="15.75" customHeight="1">
       <c r="I597" s="7"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="9:9" ht="15.75" customHeight="1">
       <c r="I598" s="7"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="9:9" ht="15.75" customHeight="1">
       <c r="I599" s="7"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="9:9" ht="15.75" customHeight="1">
       <c r="I600" s="7"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="9:9" ht="15.75" customHeight="1">
       <c r="I601" s="7"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="9:9" ht="15.75" customHeight="1">
       <c r="I602" s="7"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="9:9" ht="15.75" customHeight="1">
       <c r="I603" s="7"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="9:9" ht="15.75" customHeight="1">
       <c r="I604" s="7"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="9:9" ht="15.75" customHeight="1">
       <c r="I605" s="7"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="9:9" ht="15.75" customHeight="1">
       <c r="I606" s="7"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="9:9" ht="15.75" customHeight="1">
       <c r="I607" s="7"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="9:9" ht="15.75" customHeight="1">
       <c r="I608" s="7"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="9:9" ht="15.75" customHeight="1">
       <c r="I609" s="7"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="9:9" ht="15.75" customHeight="1">
       <c r="I610" s="7"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="9:9" ht="15.75" customHeight="1">
       <c r="I611" s="7"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="9:9" ht="15.75" customHeight="1">
       <c r="I612" s="7"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="9:9" ht="15.75" customHeight="1">
       <c r="I613" s="7"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="9:9" ht="15.75" customHeight="1">
       <c r="I614" s="7"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="9:9" ht="15.75" customHeight="1">
       <c r="I615" s="7"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="9:9" ht="15.75" customHeight="1">
       <c r="I616" s="7"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="9:9" ht="15.75" customHeight="1">
       <c r="I617" s="7"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="9:9" ht="15.75" customHeight="1">
       <c r="I618" s="7"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="9:9" ht="15.75" customHeight="1">
       <c r="I619" s="7"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="9:9" ht="15.75" customHeight="1">
       <c r="I620" s="7"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="9:9" ht="15.75" customHeight="1">
       <c r="I621" s="7"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="9:9" ht="15.75" customHeight="1">
       <c r="I622" s="7"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="9:9" ht="15.75" customHeight="1">
       <c r="I623" s="7"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="9:9" ht="15.75" customHeight="1">
       <c r="I624" s="7"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="9:9" ht="15.75" customHeight="1">
       <c r="I625" s="7"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="9:9" ht="15.75" customHeight="1">
       <c r="I626" s="7"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="9:9" ht="15.75" customHeight="1">
       <c r="I627" s="7"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="9:9" ht="15.75" customHeight="1">
       <c r="I628" s="7"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="9:9" ht="15.75" customHeight="1">
       <c r="I629" s="7"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="9:9" ht="15.75" customHeight="1">
       <c r="I630" s="7"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="9:9" ht="15.75" customHeight="1">
       <c r="I631" s="7"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="9:9" ht="15.75" customHeight="1">
       <c r="I632" s="7"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="9:9" ht="15.75" customHeight="1">
       <c r="I633" s="7"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="9:9" ht="15.75" customHeight="1">
       <c r="I634" s="7"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="9:9" ht="15.75" customHeight="1">
       <c r="I635" s="7"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="9:9" ht="15.75" customHeight="1">
       <c r="I636" s="7"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="9:9" ht="15.75" customHeight="1">
       <c r="I637" s="7"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="9:9" ht="15.75" customHeight="1">
       <c r="I638" s="7"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="9:9" ht="15.75" customHeight="1">
       <c r="I639" s="7"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="9:9" ht="15.75" customHeight="1">
       <c r="I640" s="7"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="9:9" ht="15.75" customHeight="1">
       <c r="I641" s="7"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="9:9" ht="15.75" customHeight="1">
       <c r="I642" s="7"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="9:9" ht="15.75" customHeight="1">
       <c r="I643" s="7"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="9:9" ht="15.75" customHeight="1">
       <c r="I644" s="7"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="9:9" ht="15.75" customHeight="1">
       <c r="I645" s="7"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="9:9" ht="15.75" customHeight="1">
       <c r="I646" s="7"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="9:9" ht="15.75" customHeight="1">
       <c r="I647" s="7"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="9:9" ht="15.75" customHeight="1">
       <c r="I648" s="7"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="9:9" ht="15.75" customHeight="1">
       <c r="I649" s="7"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="9:9" ht="15.75" customHeight="1">
       <c r="I650" s="7"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="9:9" ht="15.75" customHeight="1">
       <c r="I651" s="7"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="9:9" ht="15.75" customHeight="1">
       <c r="I652" s="7"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="9:9" ht="15.75" customHeight="1">
       <c r="I653" s="7"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="9:9" ht="15.75" customHeight="1">
       <c r="I654" s="7"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="9:9" ht="15.75" customHeight="1">
       <c r="I655" s="7"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="9:9" ht="15.75" customHeight="1">
       <c r="I656" s="7"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="9:9" ht="15.75" customHeight="1">
       <c r="I657" s="7"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="9:9" ht="15.75" customHeight="1">
       <c r="I658" s="7"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="9:9" ht="15.75" customHeight="1">
       <c r="I659" s="7"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="9:9" ht="15.75" customHeight="1">
       <c r="I660" s="7"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="9:9" ht="15.75" customHeight="1">
       <c r="I661" s="7"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="9:9" ht="15.75" customHeight="1">
       <c r="I662" s="7"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="9:9" ht="15.75" customHeight="1">
       <c r="I663" s="7"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="9:9" ht="15.75" customHeight="1">
       <c r="I664" s="7"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="9:9" ht="15.75" customHeight="1">
       <c r="I665" s="7"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="9:9" ht="15.75" customHeight="1">
       <c r="I666" s="7"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="9:9" ht="15.75" customHeight="1">
       <c r="I667" s="7"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="9:9" ht="15.75" customHeight="1">
       <c r="I668" s="7"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="9:9" ht="15.75" customHeight="1">
       <c r="I669" s="7"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="9:9" ht="15.75" customHeight="1">
       <c r="I670" s="7"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="9:9" ht="15.75" customHeight="1">
       <c r="I671" s="7"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="9:9" ht="15.75" customHeight="1">
       <c r="I672" s="7"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="9:9" ht="15.75" customHeight="1">
       <c r="I673" s="7"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="9:9" ht="15.75" customHeight="1">
       <c r="I674" s="7"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="9:9" ht="15.75" customHeight="1">
       <c r="I675" s="7"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="9:9" ht="15.75" customHeight="1">
       <c r="I676" s="7"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="9:9" ht="15.75" customHeight="1">
       <c r="I677" s="7"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="9:9" ht="15.75" customHeight="1">
       <c r="I678" s="7"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="9:9" ht="15.75" customHeight="1">
       <c r="I679" s="7"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="9:9" ht="15.75" customHeight="1">
       <c r="I680" s="7"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="9:9" ht="15.75" customHeight="1">
       <c r="I681" s="7"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="9:9" ht="15.75" customHeight="1">
       <c r="I682" s="7"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="9:9" ht="15.75" customHeight="1">
       <c r="I683" s="7"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="9:9" ht="15.75" customHeight="1">
       <c r="I684" s="7"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="9:9" ht="15.75" customHeight="1">
       <c r="I685" s="7"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="9:9" ht="15.75" customHeight="1">
       <c r="I686" s="7"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="9:9" ht="15.75" customHeight="1">
       <c r="I687" s="7"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="9:9" ht="15.75" customHeight="1">
       <c r="I688" s="7"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="9:9" ht="15.75" customHeight="1">
       <c r="I689" s="7"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="9:9" ht="15.75" customHeight="1">
       <c r="I690" s="7"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="9:9" ht="15.75" customHeight="1">
       <c r="I691" s="7"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="9:9" ht="15.75" customHeight="1">
       <c r="I692" s="7"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="9:9" ht="15.75" customHeight="1">
       <c r="I693" s="7"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="9:9" ht="15.75" customHeight="1">
       <c r="I694" s="7"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="9:9" ht="15.75" customHeight="1">
       <c r="I695" s="7"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="9:9" ht="15.75" customHeight="1">
       <c r="I696" s="7"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="9:9" ht="15.75" customHeight="1">
       <c r="I697" s="7"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="9:9" ht="15.75" customHeight="1">
       <c r="I698" s="7"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="9:9" ht="15.75" customHeight="1">
       <c r="I699" s="7"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="9:9" ht="15.75" customHeight="1">
       <c r="I700" s="7"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="9:9" ht="15.75" customHeight="1">
       <c r="I701" s="7"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="9:9" ht="15.75" customHeight="1">
       <c r="I702" s="7"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="9:9" ht="15.75" customHeight="1">
       <c r="I703" s="7"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="9:9" ht="15.75" customHeight="1">
       <c r="I704" s="7"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="9:9" ht="15.75" customHeight="1">
       <c r="I705" s="7"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="9:9" ht="15.75" customHeight="1">
       <c r="I706" s="7"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="9:9" ht="15.75" customHeight="1">
       <c r="I707" s="7"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="9:9" ht="15.75" customHeight="1">
       <c r="I708" s="7"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="9:9" ht="15.75" customHeight="1">
       <c r="I709" s="7"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="9:9" ht="15.75" customHeight="1">
       <c r="I710" s="7"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="9:9" ht="15.75" customHeight="1">
       <c r="I711" s="7"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="9:9" ht="15.75" customHeight="1">
       <c r="I712" s="7"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="9:9" ht="15.75" customHeight="1">
       <c r="I713" s="7"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="9:9" ht="15.75" customHeight="1">
       <c r="I714" s="7"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="9:9" ht="15.75" customHeight="1">
       <c r="I715" s="7"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="9:9" ht="15.75" customHeight="1">
       <c r="I716" s="7"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="9:9" ht="15.75" customHeight="1">
       <c r="I717" s="7"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="9:9" ht="15.75" customHeight="1">
       <c r="I718" s="7"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="9:9" ht="15.75" customHeight="1">
       <c r="I719" s="7"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="9:9" ht="15.75" customHeight="1">
       <c r="I720" s="7"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="9:9" ht="15.75" customHeight="1">
       <c r="I721" s="7"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="9:9" ht="15.75" customHeight="1">
       <c r="I722" s="7"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="9:9" ht="15.75" customHeight="1">
       <c r="I723" s="7"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="9:9" ht="15.75" customHeight="1">
       <c r="I724" s="7"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="9:9" ht="15.75" customHeight="1">
       <c r="I725" s="7"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="9:9" ht="15.75" customHeight="1">
       <c r="I726" s="7"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="9:9" ht="15.75" customHeight="1">
       <c r="I727" s="7"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="9:9" ht="15.75" customHeight="1">
       <c r="I728" s="7"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="9:9" ht="15.75" customHeight="1">
       <c r="I729" s="7"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="9:9" ht="15.75" customHeight="1">
       <c r="I730" s="7"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="9:9" ht="15.75" customHeight="1">
       <c r="I731" s="7"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="9:9" ht="15.75" customHeight="1">
       <c r="I732" s="7"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="9:9" ht="15.75" customHeight="1">
       <c r="I733" s="7"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="9:9" ht="15.75" customHeight="1">
       <c r="I734" s="7"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="9:9" ht="15.75" customHeight="1">
       <c r="I735" s="7"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="9:9" ht="15.75" customHeight="1">
       <c r="I736" s="7"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="9:9" ht="15.75" customHeight="1">
       <c r="I737" s="7"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="9:9" ht="15.75" customHeight="1">
       <c r="I738" s="7"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="9:9" ht="15.75" customHeight="1">
       <c r="I739" s="7"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="9:9" ht="15.75" customHeight="1">
       <c r="I740" s="7"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="9:9" ht="15.75" customHeight="1">
       <c r="I741" s="7"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="9:9" ht="15.75" customHeight="1">
       <c r="I742" s="7"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="9:9" ht="15.75" customHeight="1">
       <c r="I743" s="7"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="9:9" ht="15.75" customHeight="1">
       <c r="I744" s="7"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="9:9" ht="15.75" customHeight="1">
       <c r="I745" s="7"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="9:9" ht="15.75" customHeight="1">
       <c r="I746" s="7"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="9:9" ht="15.75" customHeight="1">
       <c r="I747" s="7"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="9:9" ht="15.75" customHeight="1">
       <c r="I748" s="7"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="9:9" ht="15.75" customHeight="1">
       <c r="I749" s="7"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="9:9" ht="15.75" customHeight="1">
       <c r="I750" s="7"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="9:9" ht="15.75" customHeight="1">
       <c r="I751" s="7"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="9:9" ht="15.75" customHeight="1">
       <c r="I752" s="7"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="9:9" ht="15.75" customHeight="1">
       <c r="I753" s="7"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="9:9" ht="15.75" customHeight="1">
       <c r="I754" s="7"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="9:9" ht="15.75" customHeight="1">
       <c r="I755" s="7"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="9:9" ht="15.75" customHeight="1">
       <c r="I756" s="7"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="9:9" ht="15.75" customHeight="1">
       <c r="I757" s="7"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="9:9" ht="15.75" customHeight="1">
       <c r="I758" s="7"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="9:9" ht="15.75" customHeight="1">
       <c r="I759" s="7"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="9:9" ht="15.75" customHeight="1">
       <c r="I760" s="7"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="9:9" ht="15.75" customHeight="1">
       <c r="I761" s="7"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="9:9" ht="15.75" customHeight="1">
       <c r="I762" s="7"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="9:9" ht="15.75" customHeight="1">
       <c r="I763" s="7"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="9:9" ht="15.75" customHeight="1">
       <c r="I764" s="7"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="9:9" ht="15.75" customHeight="1">
       <c r="I765" s="7"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="9:9" ht="15.75" customHeight="1">
       <c r="I766" s="7"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="9:9" ht="15.75" customHeight="1">
       <c r="I767" s="7"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="9:9" ht="15.75" customHeight="1">
       <c r="I768" s="7"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="9:9" ht="15.75" customHeight="1">
       <c r="I769" s="7"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="9:9" ht="15.75" customHeight="1">
       <c r="I770" s="7"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="9:9" ht="15.75" customHeight="1">
       <c r="I771" s="7"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="9:9" ht="15.75" customHeight="1">
       <c r="I772" s="7"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="9:9" ht="15.75" customHeight="1">
       <c r="I773" s="7"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="9:9" ht="15.75" customHeight="1">
       <c r="I774" s="7"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="9:9" ht="15.75" customHeight="1">
       <c r="I775" s="7"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="9:9" ht="15.75" customHeight="1">
       <c r="I776" s="7"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="9:9" ht="15.75" customHeight="1">
       <c r="I777" s="7"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="9:9" ht="15.75" customHeight="1">
       <c r="I778" s="7"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="9:9" ht="15.75" customHeight="1">
       <c r="I779" s="7"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="9:9" ht="15.75" customHeight="1">
       <c r="I780" s="7"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="9:9" ht="15.75" customHeight="1">
       <c r="I781" s="7"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="9:9" ht="15.75" customHeight="1">
       <c r="I782" s="7"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="9:9" ht="15.75" customHeight="1">
       <c r="I783" s="7"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="9:9" ht="15.75" customHeight="1">
       <c r="I784" s="7"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="9:9" ht="15.75" customHeight="1">
       <c r="I785" s="7"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="9:9" ht="15.75" customHeight="1">
       <c r="I786" s="7"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="9:9" ht="15.75" customHeight="1">
       <c r="I787" s="7"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="9:9" ht="15.75" customHeight="1">
       <c r="I788" s="7"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="9:9" ht="15.75" customHeight="1">
       <c r="I789" s="7"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="9:9" ht="15.75" customHeight="1">
       <c r="I790" s="7"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="9:9" ht="15.75" customHeight="1">
       <c r="I791" s="7"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="9:9" ht="15.75" customHeight="1">
       <c r="I792" s="7"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="9:9" ht="15.75" customHeight="1">
       <c r="I793" s="7"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="9:9" ht="15.75" customHeight="1">
       <c r="I794" s="7"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="9:9" ht="15.75" customHeight="1">
       <c r="I795" s="7"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="9:9" ht="15.75" customHeight="1">
       <c r="I796" s="7"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="9:9" ht="15.75" customHeight="1">
       <c r="I797" s="7"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="9:9" ht="15.75" customHeight="1">
       <c r="I798" s="7"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="9:9" ht="15.75" customHeight="1">
       <c r="I799" s="7"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="9:9" ht="15.75" customHeight="1">
       <c r="I800" s="7"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="9:9" ht="15.75" customHeight="1">
       <c r="I801" s="7"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="9:9" ht="15.75" customHeight="1">
       <c r="I802" s="7"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="9:9" ht="15.75" customHeight="1">
       <c r="I803" s="7"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="9:9" ht="15.75" customHeight="1">
       <c r="I804" s="7"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="9:9" ht="15.75" customHeight="1">
       <c r="I805" s="7"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="9:9" ht="15.75" customHeight="1">
       <c r="I806" s="7"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="9:9" ht="15.75" customHeight="1">
       <c r="I807" s="7"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="9:9" ht="15.75" customHeight="1">
       <c r="I808" s="7"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="9:9" ht="15.75" customHeight="1">
       <c r="I809" s="7"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="9:9" ht="15.75" customHeight="1">
       <c r="I810" s="7"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="9:9" ht="15.75" customHeight="1">
       <c r="I811" s="7"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="9:9" ht="15.75" customHeight="1">
       <c r="I812" s="7"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="9:9" ht="15.75" customHeight="1">
       <c r="I813" s="7"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="9:9" ht="15.75" customHeight="1">
       <c r="I814" s="7"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="9:9" ht="15.75" customHeight="1">
       <c r="I815" s="7"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="9:9" ht="15.75" customHeight="1">
       <c r="I816" s="7"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="9:9" ht="15.75" customHeight="1">
       <c r="I817" s="7"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="9:9" ht="15.75" customHeight="1">
       <c r="I818" s="7"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="9:9" ht="15.75" customHeight="1">
       <c r="I819" s="7"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="9:9" ht="15.75" customHeight="1">
       <c r="I820" s="7"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="9:9" ht="15.75" customHeight="1">
       <c r="I821" s="7"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="9:9" ht="15.75" customHeight="1">
       <c r="I822" s="7"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="9:9" ht="15.75" customHeight="1">
       <c r="I823" s="7"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="9:9" ht="15.75" customHeight="1">
       <c r="I824" s="7"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="9:9" ht="15.75" customHeight="1">
       <c r="I825" s="7"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="9:9" ht="15.75" customHeight="1">
       <c r="I826" s="7"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="9:9" ht="15.75" customHeight="1">
       <c r="I827" s="7"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="9:9" ht="15.75" customHeight="1">
       <c r="I828" s="7"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="9:9" ht="15.75" customHeight="1">
       <c r="I829" s="7"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="9:9" ht="15.75" customHeight="1">
       <c r="I830" s="7"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="9:9" ht="15.75" customHeight="1">
       <c r="I831" s="7"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="9:9" ht="15.75" customHeight="1">
       <c r="I832" s="7"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="9:9" ht="15.75" customHeight="1">
       <c r="I833" s="7"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="9:9" ht="15.75" customHeight="1">
       <c r="I834" s="7"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="9:9" ht="15.75" customHeight="1">
       <c r="I835" s="7"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="9:9" ht="15.75" customHeight="1">
       <c r="I836" s="7"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="9:9" ht="15.75" customHeight="1">
       <c r="I837" s="7"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="9:9" ht="15.75" customHeight="1">
       <c r="I838" s="7"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="9:9" ht="15.75" customHeight="1">
       <c r="I839" s="7"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="9:9" ht="15.75" customHeight="1">
       <c r="I840" s="7"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="9:9" ht="15.75" customHeight="1">
       <c r="I841" s="7"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="9:9" ht="15.75" customHeight="1">
       <c r="I842" s="7"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="9:9" ht="15.75" customHeight="1">
       <c r="I843" s="7"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="9:9" ht="15.75" customHeight="1">
       <c r="I844" s="7"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="9:9" ht="15.75" customHeight="1">
       <c r="I845" s="7"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="9:9" ht="15.75" customHeight="1">
       <c r="I846" s="7"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="9:9" ht="15.75" customHeight="1">
       <c r="I847" s="7"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="9:9" ht="15.75" customHeight="1">
       <c r="I848" s="7"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="9:9" ht="15.75" customHeight="1">
       <c r="I849" s="7"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="9:9" ht="15.75" customHeight="1">
       <c r="I850" s="7"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="9:9" ht="15.75" customHeight="1">
       <c r="I851" s="7"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="9:9" ht="15.75" customHeight="1">
       <c r="I852" s="7"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="9:9" ht="15.75" customHeight="1">
       <c r="I853" s="7"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="9:9" ht="15.75" customHeight="1">
       <c r="I854" s="7"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="9:9" ht="15.75" customHeight="1">
       <c r="I855" s="7"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="9:9" ht="15.75" customHeight="1">
       <c r="I856" s="7"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="9:9" ht="15.75" customHeight="1">
       <c r="I857" s="7"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="9:9" ht="15.75" customHeight="1">
       <c r="I858" s="7"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="9:9" ht="15.75" customHeight="1">
       <c r="I859" s="7"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="9:9" ht="15.75" customHeight="1">
       <c r="I860" s="7"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="9:9" ht="15.75" customHeight="1">
       <c r="I861" s="7"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="9:9" ht="15.75" customHeight="1">
       <c r="I862" s="7"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="9:9" ht="15.75" customHeight="1">
       <c r="I863" s="7"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="9:9" ht="15.75" customHeight="1">
       <c r="I864" s="7"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="9:9" ht="15.75" customHeight="1">
       <c r="I865" s="7"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="9:9" ht="15.75" customHeight="1">
       <c r="I866" s="7"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="9:9" ht="15.75" customHeight="1">
       <c r="I867" s="7"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="9:9" ht="15.75" customHeight="1">
       <c r="I868" s="7"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="9:9" ht="15.75" customHeight="1">
       <c r="I869" s="7"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="9:9" ht="15.75" customHeight="1">
       <c r="I870" s="7"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="9:9" ht="15.75" customHeight="1">
       <c r="I871" s="7"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="9:9" ht="15.75" customHeight="1">
       <c r="I872" s="7"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="9:9" ht="15.75" customHeight="1">
       <c r="I873" s="7"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="9:9" ht="15.75" customHeight="1">
       <c r="I874" s="7"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="9:9" ht="15.75" customHeight="1">
       <c r="I875" s="7"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="9:9" ht="15.75" customHeight="1">
       <c r="I876" s="7"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="9:9" ht="15.75" customHeight="1">
       <c r="I877" s="7"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="9:9" ht="15.75" customHeight="1">
       <c r="I878" s="7"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="9:9" ht="15.75" customHeight="1">
       <c r="I879" s="7"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="9:9" ht="15.75" customHeight="1">
       <c r="I880" s="7"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="9:9" ht="15.75" customHeight="1">
       <c r="I881" s="7"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="9:9" ht="15.75" customHeight="1">
       <c r="I882" s="7"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="9:9" ht="15.75" customHeight="1">
       <c r="I883" s="7"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="9:9" ht="15.75" customHeight="1">
       <c r="I884" s="7"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="9:9" ht="15.75" customHeight="1">
       <c r="I885" s="7"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="9:9" ht="15.75" customHeight="1">
       <c r="I886" s="7"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="9:9" ht="15.75" customHeight="1">
       <c r="I887" s="7"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="9:9" ht="15.75" customHeight="1">
       <c r="I888" s="7"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="9:9" ht="15.75" customHeight="1">
       <c r="I889" s="7"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="9:9" ht="15.75" customHeight="1">
       <c r="I890" s="7"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="9:9" ht="15.75" customHeight="1">
       <c r="I891" s="7"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="9:9" ht="15.75" customHeight="1">
       <c r="I892" s="7"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="9:9" ht="15.75" customHeight="1">
       <c r="I893" s="7"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="9:9" ht="15.75" customHeight="1">
       <c r="I894" s="7"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="9:9" ht="15.75" customHeight="1">
       <c r="I895" s="7"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="9:9" ht="15.75" customHeight="1">
       <c r="I896" s="7"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="9:9" ht="15.75" customHeight="1">
       <c r="I897" s="7"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="9:9" ht="15.75" customHeight="1">
       <c r="I898" s="7"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="9:9" ht="15.75" customHeight="1">
       <c r="I899" s="7"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="9:9" ht="15.75" customHeight="1">
       <c r="I900" s="7"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="9:9" ht="15.75" customHeight="1">
       <c r="I901" s="7"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="9:9" ht="15.75" customHeight="1">
       <c r="I902" s="7"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="9:9" ht="15.75" customHeight="1">
       <c r="I903" s="7"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="9:9" ht="15.75" customHeight="1">
       <c r="I904" s="7"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="9:9" ht="15.75" customHeight="1">
       <c r="I905" s="7"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="9:9" ht="15.75" customHeight="1">
       <c r="I906" s="7"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="9:9" ht="15.75" customHeight="1">
       <c r="I907" s="7"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="9:9" ht="15.75" customHeight="1">
       <c r="I908" s="7"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="9:9" ht="15.75" customHeight="1">
       <c r="I909" s="7"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="9:9" ht="15.75" customHeight="1">
       <c r="I910" s="7"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="9:9" ht="15.75" customHeight="1">
       <c r="I911" s="7"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="9:9" ht="15.75" customHeight="1">
       <c r="I912" s="7"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="9:9" ht="15.75" customHeight="1">
       <c r="I913" s="7"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="9:9" ht="15.75" customHeight="1">
       <c r="I914" s="7"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="9:9" ht="15.75" customHeight="1">
       <c r="I915" s="7"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="9:9" ht="15.75" customHeight="1">
       <c r="I916" s="7"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="9:9" ht="15.75" customHeight="1">
       <c r="I917" s="7"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="9:9" ht="15.75" customHeight="1">
       <c r="I918" s="7"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="9:9" ht="15.75" customHeight="1">
       <c r="I919" s="7"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="9:9" ht="15.75" customHeight="1">
       <c r="I920" s="7"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="9:9" ht="15.75" customHeight="1">
       <c r="I921" s="7"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="9:9" ht="15.75" customHeight="1">
       <c r="I922" s="7"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="9:9" ht="15.75" customHeight="1">
       <c r="I923" s="7"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="9:9" ht="15.75" customHeight="1">
       <c r="I924" s="7"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="9:9" ht="15.75" customHeight="1">
       <c r="I925" s="7"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="9:9" ht="15.75" customHeight="1">
       <c r="I926" s="7"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="9:9" ht="15.75" customHeight="1">
       <c r="I927" s="7"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="9:9" ht="15.75" customHeight="1">
       <c r="I928" s="7"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="9:9" ht="15.75" customHeight="1">
       <c r="I929" s="7"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="9:9" ht="15.75" customHeight="1">
       <c r="I930" s="7"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="9:9" ht="15.75" customHeight="1">
       <c r="I931" s="7"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="9:9" ht="15.75" customHeight="1">
       <c r="I932" s="7"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="9:9" ht="15.75" customHeight="1">
       <c r="I933" s="7"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="9:9" ht="15.75" customHeight="1">
       <c r="I934" s="7"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="9:9" ht="15.75" customHeight="1">
       <c r="I935" s="7"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="9:9" ht="15.75" customHeight="1">
       <c r="I936" s="7"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="9:9" ht="15.75" customHeight="1">
       <c r="I937" s="7"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="9:9" ht="15.75" customHeight="1">
       <c r="I938" s="7"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="9:9" ht="15.75" customHeight="1">
       <c r="I939" s="7"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="9:9" ht="15.75" customHeight="1">
       <c r="I940" s="7"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="9:9" ht="15.75" customHeight="1">
       <c r="I941" s="7"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="9:9" ht="15.75" customHeight="1">
       <c r="I942" s="7"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="9:9" ht="15.75" customHeight="1">
       <c r="I943" s="7"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="9:9" ht="15.75" customHeight="1">
       <c r="I944" s="7"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="9:9" ht="15.75" customHeight="1">
       <c r="I945" s="7"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="9:9" ht="15.75" customHeight="1">
       <c r="I946" s="7"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="9:9" ht="15.75" customHeight="1">
       <c r="I947" s="7"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="9:9" ht="15.75" customHeight="1">
       <c r="I948" s="7"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="9:9" ht="15.75" customHeight="1">
       <c r="I949" s="7"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="9:9" ht="15.75" customHeight="1">
       <c r="I950" s="7"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="9:9" ht="15.75" customHeight="1">
       <c r="I951" s="7"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="9:9" ht="15.75" customHeight="1">
       <c r="I952" s="7"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="9:9" ht="15.75" customHeight="1">
       <c r="I953" s="7"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="9:9" ht="15.75" customHeight="1">
       <c r="I954" s="7"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="9:9" ht="15.75" customHeight="1">
       <c r="I955" s="7"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="9:9" ht="15.75" customHeight="1">
       <c r="I956" s="7"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="9:9" ht="15.75" customHeight="1">
       <c r="I957" s="7"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="9:9" ht="15.75" customHeight="1">
       <c r="I958" s="7"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="9:9" ht="15.75" customHeight="1">
       <c r="I959" s="7"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="9:9" ht="15.75" customHeight="1">
       <c r="I960" s="7"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="9:9" ht="15.75" customHeight="1">
       <c r="I961" s="7"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="9:9" ht="15.75" customHeight="1">
       <c r="I962" s="7"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="9:9" ht="15.75" customHeight="1">
       <c r="I963" s="7"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="9:9" ht="15.75" customHeight="1">
       <c r="I964" s="7"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="9:9" ht="15.75" customHeight="1">
       <c r="I965" s="7"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="9:9" ht="15.75" customHeight="1">
       <c r="I966" s="7"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="9:9" ht="15.75" customHeight="1">
       <c r="I967" s="7"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="9:9" ht="15.75" customHeight="1">
       <c r="I968" s="7"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="9:9" ht="15.75" customHeight="1">
       <c r="I969" s="7"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="9:9" ht="15.75" customHeight="1">
       <c r="I970" s="7"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="9:9" ht="15.75" customHeight="1">
       <c r="I971" s="7"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="9:9" ht="15.75" customHeight="1">
       <c r="I972" s="7"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="9:9" ht="15.75" customHeight="1">
       <c r="I973" s="7"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="9:9" ht="15.75" customHeight="1">
       <c r="I974" s="7"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="9:9" ht="15.75" customHeight="1">
       <c r="I975" s="7"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="9:9" ht="15.75" customHeight="1">
       <c r="I976" s="7"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="9:9" ht="15.75" customHeight="1">
       <c r="I977" s="7"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="9:9" ht="15.75" customHeight="1">
       <c r="I978" s="7"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="9:9" ht="15.75" customHeight="1">
       <c r="I979" s="7"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="9:9" ht="15.75" customHeight="1">
       <c r="I980" s="7"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="9:9" ht="15.75" customHeight="1">
       <c r="I981" s="7"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="9:9" ht="15.75" customHeight="1">
       <c r="I982" s="7"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="9:9" ht="15.75" customHeight="1">
       <c r="I983" s="7"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="9:9" ht="15.75" customHeight="1">
       <c r="I984" s="7"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="9:9" ht="15.75" customHeight="1">
       <c r="I985" s="7"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="9:9" ht="15.75" customHeight="1">
       <c r="I986" s="7"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="9:9" ht="15.75" customHeight="1">
       <c r="I987" s="7"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="9:9" ht="15.75" customHeight="1">
       <c r="I988" s="7"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="9:9" ht="15.75" customHeight="1">
       <c r="I989" s="7"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="9:9" ht="15.75" customHeight="1">
       <c r="I990" s="7"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="9:9" ht="15.75" customHeight="1">
       <c r="I991" s="7"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="9:9" ht="15.75" customHeight="1">
       <c r="I992" s="7"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="9:9" ht="15.75" customHeight="1">
       <c r="I993" s="7"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="9:9" ht="15.75" customHeight="1">
       <c r="I994" s="7"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="9:9" ht="15.75" customHeight="1">
       <c r="I995" s="7"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="9:9" ht="15.75" customHeight="1">
       <c r="I996" s="7"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="9:9" ht="15.75" customHeight="1">
       <c r="I997" s="7"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="9:9" ht="15.75" customHeight="1">
       <c r="I998" s="7"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="9:9" ht="15.75" customHeight="1">
       <c r="I999" s="7"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="9:9" ht="15.75" customHeight="1">
       <c r="I1000" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId3" ref="I4"/>
-    <hyperlink r:id="rId4" ref="I5"/>
-    <hyperlink r:id="rId5" ref="I6"/>
-    <hyperlink r:id="rId6" ref="I7"/>
-    <hyperlink r:id="rId7" ref="I8"/>
-    <hyperlink r:id="rId8" ref="I9"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId9"/>
 </worksheet>
 </file>